--- a/examples/txtl_setup/inputs/TX-TL_setup_example.xlsx
+++ b/examples/txtl_setup/inputs/TX-TL_setup_example.xlsx
@@ -1274,8 +1274,8 @@
   </sheetPr>
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -8544,7 +8544,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" s="21">
-        <f>SUM(Layout!D3:D18)</f>
+        <f>SUM(Layout!D3:D384)</f>
         <v>10</v>
       </c>
       <c r="J12"/>

--- a/examples/txtl_setup/inputs/TX-TL_setup_example.xlsx
+++ b/examples/txtl_setup/inputs/TX-TL_setup_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="24420" windowHeight="13960" tabRatio="982"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="24560" windowHeight="13960" tabRatio="982"/>
   </bookViews>
   <sheets>
     <sheet name="161103_repressable_RFP_baseline" sheetId="1" r:id="rId1"/>
@@ -1274,8 +1274,8 @@
   </sheetPr>
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -8534,11 +8534,11 @@
       </c>
       <c r="D12" s="18">
         <f t="shared" ref="D12:D17" si="0">IFERROR(C12*$K$12/B12, "")</f>
-        <v>2.5499999999999998</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E12" s="19">
         <f>D12*$I$15*$L$12*$M$12</f>
-        <v>39.269999999999996</v>
+        <v>78.539999999999992</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12"/>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="J12"/>
       <c r="K12" s="22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L12" s="23">
         <v>7</v>
@@ -9581,11 +9581,11 @@
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="E13" s="19">
         <f>D13*$I$15*$L$12*$M$12</f>
-        <v>18.480000000000004</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13"/>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="19">
         <f>IFERROR(C14/B14*90*0.95*_xlnm.Extract,"")</f>
@@ -16894,15 +16894,15 @@
       </c>
       <c r="D21" s="38">
         <f>IF(Layout!D3 &gt;0, $K$12 - E21 - P21, "")</f>
-        <v>0.64386315789473703</v>
+        <v>1.2877263157894741</v>
       </c>
       <c r="E21" s="39">
         <f>IFERROR(Layout!D3*SUM($D$12:$D$17), "")</f>
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="F21" s="40">
         <f>IF(ISBLANK(Layout!E3), "", Layout!E3*$K$12/Stocks!$E$3)</f>
-        <v>0.55613684210526315</v>
+        <v>1.1122736842105263</v>
       </c>
       <c r="G21" s="40" t="str">
         <f>IF(ISBLANK(Layout!F3), "", Layout!F3*$K$12/Stocks!$E$4)</f>
@@ -16942,7 +16942,7 @@
       </c>
       <c r="P21" s="106">
         <f t="shared" ref="P21:P52" si="1">SUM(F21:O21)</f>
-        <v>0.55613684210526315</v>
+        <v>1.1122736842105263</v>
       </c>
       <c r="Q21"/>
       <c r="R21"/>
@@ -17967,11 +17967,11 @@
       </c>
       <c r="D22" s="45">
         <f>IF(Layout!D4 &gt;0, $K$12 - E22 - P22, "")</f>
-        <v>1.1468333333333336</v>
+        <v>2.2936666666666672</v>
       </c>
       <c r="E22" s="46">
         <f>IFERROR(Layout!D4*SUM($D$12:$D$17), "")</f>
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="F22" s="47" t="str">
         <f>IF(ISBLANK(Layout!E4), "", Layout!E4*$K$12/Stocks!$E$3)</f>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="G22" s="47">
         <f>IF(ISBLANK(Layout!F4), "", Layout!F4*$K$12/Stocks!$E$4)</f>
-        <v>5.3166666666666668E-2</v>
+        <v>0.10633333333333334</v>
       </c>
       <c r="H22" s="47" t="str">
         <f>IF(ISBLANK(Layout!G4), "", Layout!G4*$K$12/Stocks!$E$5)</f>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="P22" s="107">
         <f t="shared" si="1"/>
-        <v>5.3166666666666668E-2</v>
+        <v>0.10633333333333334</v>
       </c>
       <c r="Q22"/>
       <c r="R22"/>
@@ -19040,11 +19040,11 @@
       </c>
       <c r="D23" s="53">
         <f>IF(Layout!D5 &gt;0, $K$12 - E23 - P23, "")</f>
-        <v>0.98733333333333351</v>
+        <v>1.974666666666667</v>
       </c>
       <c r="E23" s="54">
         <f>IFERROR(Layout!D5*SUM($D$12:$D$17), "")</f>
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="F23" s="55" t="str">
         <f>IF(ISBLANK(Layout!E5), "", Layout!E5*$K$12/Stocks!$E$3)</f>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="G23" s="55">
         <f>IF(ISBLANK(Layout!F5), "", Layout!F5*$K$12/Stocks!$E$4)</f>
-        <v>0.21266666666666667</v>
+        <v>0.42533333333333334</v>
       </c>
       <c r="H23" s="55" t="str">
         <f>IF(ISBLANK(Layout!G5), "", Layout!G5*$K$12/Stocks!$E$5)</f>
@@ -19088,7 +19088,7 @@
       </c>
       <c r="P23" s="108">
         <f t="shared" si="1"/>
-        <v>0.21266666666666667</v>
+        <v>0.42533333333333334</v>
       </c>
       <c r="Q23"/>
       <c r="R23"/>
@@ -20113,11 +20113,11 @@
       </c>
       <c r="D24" s="53">
         <f>IF(Layout!D6 &gt;0, $K$12 - E24 - P24, "")</f>
-        <v>1.1263704000000001</v>
+        <v>2.2527408000000002</v>
       </c>
       <c r="E24" s="54">
         <f>IFERROR(Layout!D6*SUM($D$12:$D$17), "")</f>
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="F24" s="55" t="str">
         <f>IF(ISBLANK(Layout!E6), "", Layout!E6*$K$12/Stocks!$E$3)</f>
@@ -20129,7 +20129,7 @@
       </c>
       <c r="H24" s="55">
         <f>IF(ISBLANK(Layout!G6), "", Layout!G6*$K$12/Stocks!$E$5)</f>
-        <v>7.362959999999999E-2</v>
+        <v>0.14725919999999998</v>
       </c>
       <c r="I24" s="55" t="str">
         <f>IF(ISBLANK(Layout!H6), "", Layout!H6*$K$12/Stocks!$E$6)</f>
@@ -20161,7 +20161,7 @@
       </c>
       <c r="P24" s="108">
         <f t="shared" si="1"/>
-        <v>7.362959999999999E-2</v>
+        <v>0.14725919999999998</v>
       </c>
     </row>
     <row r="25" spans="1:1024" outlineLevel="1">
@@ -20178,11 +20178,11 @@
       </c>
       <c r="D25" s="53">
         <f>IF(Layout!D7 &gt;0, $K$12 - E25 - P25, "")</f>
-        <v>0.90548160000000022</v>
+        <v>1.8109632000000004</v>
       </c>
       <c r="E25" s="54">
         <f>IFERROR(Layout!D7*SUM($D$12:$D$17), "")</f>
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="F25" s="55" t="str">
         <f>IF(ISBLANK(Layout!E7), "", Layout!E7*$K$12/Stocks!$E$3)</f>
@@ -20194,7 +20194,7 @@
       </c>
       <c r="H25" s="55">
         <f>IF(ISBLANK(Layout!G7), "", Layout!G7*$K$12/Stocks!$E$5)</f>
-        <v>0.29451839999999996</v>
+        <v>0.58903679999999992</v>
       </c>
       <c r="I25" s="55" t="str">
         <f>IF(ISBLANK(Layout!H7), "", Layout!H7*$K$12/Stocks!$E$6)</f>
@@ -20226,7 +20226,7 @@
       </c>
       <c r="P25" s="108">
         <f t="shared" si="1"/>
-        <v>0.29451839999999996</v>
+        <v>0.58903679999999992</v>
       </c>
     </row>
     <row r="26" spans="1:1024" outlineLevel="1">
@@ -20243,11 +20243,11 @@
       </c>
       <c r="D26" s="53">
         <f>IF(Layout!D8 &gt;0, $K$12 - E26 - P26, "")</f>
-        <v>1.1310100671140941</v>
+        <v>2.2620201342281883</v>
       </c>
       <c r="E26" s="54">
         <f>IFERROR(Layout!D8*SUM($D$12:$D$17), "")</f>
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="F26" s="55" t="str">
         <f>IF(ISBLANK(Layout!E8), "", Layout!E8*$K$12/Stocks!$E$3)</f>
@@ -20263,7 +20263,7 @@
       </c>
       <c r="I26" s="55">
         <f>IF(ISBLANK(Layout!H8), "", Layout!H8*$K$12/Stocks!$E$6)</f>
-        <v>6.8989932885906033E-2</v>
+        <v>0.13797986577181207</v>
       </c>
       <c r="J26" s="55" t="str">
         <f>IF(ISBLANK(Layout!I8),"",Layout!I8*$K$12/Stocks!$E$7)</f>
@@ -20291,7 +20291,7 @@
       </c>
       <c r="P26" s="108">
         <f t="shared" si="1"/>
-        <v>6.8989932885906033E-2</v>
+        <v>0.13797986577181207</v>
       </c>
     </row>
     <row r="27" spans="1:1024" outlineLevel="1">
@@ -20308,11 +20308,11 @@
       </c>
       <c r="D27" s="53">
         <f>IF(Layout!D9 &gt;0, $K$12 - E27 - P27, "")</f>
-        <v>0.92404026845637599</v>
+        <v>1.848080536912752</v>
       </c>
       <c r="E27" s="54">
         <f>IFERROR(Layout!D9*SUM($D$12:$D$17), "")</f>
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="F27" s="55" t="str">
         <f>IF(ISBLANK(Layout!E9), "", Layout!E9*$K$12/Stocks!$E$3)</f>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="I27" s="55">
         <f>IF(ISBLANK(Layout!H9), "", Layout!H9*$K$12/Stocks!$E$6)</f>
-        <v>0.27595973154362413</v>
+        <v>0.55191946308724826</v>
       </c>
       <c r="J27" s="55" t="str">
         <f>IF(ISBLANK(Layout!I9),"",Layout!I9*$K$12/Stocks!$E$7)</f>
@@ -20356,7 +20356,7 @@
       </c>
       <c r="P27" s="108">
         <f t="shared" si="1"/>
-        <v>0.27595973154362413</v>
+        <v>0.55191946308724826</v>
       </c>
     </row>
     <row r="28" spans="1:1024" outlineLevel="1">
@@ -20373,11 +20373,11 @@
       </c>
       <c r="D28" s="53">
         <f>IF(Layout!D10 &gt;0, $K$12 - E28 - P28, "")</f>
-        <v>0.94640746666666686</v>
+        <v>1.8928149333333337</v>
       </c>
       <c r="E28" s="54">
         <f>IFERROR(Layout!D10*SUM($D$12:$D$17), "")</f>
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="F28" s="55" t="str">
         <f>IF(ISBLANK(Layout!E10), "", Layout!E10*$K$12/Stocks!$E$3)</f>
@@ -20385,11 +20385,11 @@
       </c>
       <c r="G28" s="55">
         <f>IF(ISBLANK(Layout!F10), "", Layout!F10*$K$12/Stocks!$E$4)</f>
-        <v>0.10633333333333334</v>
+        <v>0.21266666666666667</v>
       </c>
       <c r="H28" s="55">
         <f>IF(ISBLANK(Layout!G10), "", Layout!G10*$K$12/Stocks!$E$5)</f>
-        <v>0.14725919999999998</v>
+        <v>0.29451839999999996</v>
       </c>
       <c r="I28" s="55" t="str">
         <f>IF(ISBLANK(Layout!H10), "", Layout!H10*$K$12/Stocks!$E$6)</f>
@@ -20421,7 +20421,7 @@
       </c>
       <c r="P28" s="108">
         <f t="shared" si="1"/>
-        <v>0.25359253333333331</v>
+        <v>0.50718506666666663</v>
       </c>
     </row>
     <row r="29" spans="1:1024" outlineLevel="1">
@@ -20438,11 +20438,11 @@
       </c>
       <c r="D29" s="53">
         <f>IF(Layout!D11 &gt;0, $K$12 - E29 - P29, "")</f>
-        <v>0.9556868008948548</v>
+        <v>1.9113736017897096</v>
       </c>
       <c r="E29" s="54">
         <f>IFERROR(Layout!D11*SUM($D$12:$D$17), "")</f>
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="F29" s="55" t="str">
         <f>IF(ISBLANK(Layout!E11), "", Layout!E11*$K$12/Stocks!$E$3)</f>
@@ -20450,7 +20450,7 @@
       </c>
       <c r="G29" s="55">
         <f>IF(ISBLANK(Layout!F11), "", Layout!F11*$K$12/Stocks!$E$4)</f>
-        <v>0.10633333333333334</v>
+        <v>0.21266666666666667</v>
       </c>
       <c r="H29" s="55" t="str">
         <f>IF(ISBLANK(Layout!G11), "", Layout!G11*$K$12/Stocks!$E$5)</f>
@@ -20458,7 +20458,7 @@
       </c>
       <c r="I29" s="55">
         <f>IF(ISBLANK(Layout!H11), "", Layout!H11*$K$12/Stocks!$E$6)</f>
-        <v>0.13797986577181207</v>
+        <v>0.27595973154362413</v>
       </c>
       <c r="J29" s="55" t="str">
         <f>IF(ISBLANK(Layout!I11),"",Layout!I11*$K$12/Stocks!$E$7)</f>
@@ -20486,7 +20486,7 @@
       </c>
       <c r="P29" s="108">
         <f t="shared" si="1"/>
-        <v>0.2443131991051454</v>
+        <v>0.4886263982102908</v>
       </c>
     </row>
     <row r="30" spans="1:1024" outlineLevel="1">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="D30" s="54">
         <f>IF(Layout!D12 &gt;0, $K$12 - E30 - P30, "")</f>
-        <v>0.91476093422818816</v>
+        <v>1.8295218684563763</v>
       </c>
       <c r="E30" s="54">
         <f>IFERROR(Layout!D12*SUM($D$12:$D$17), "")</f>
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="F30" s="55" t="str">
         <f>IF(ISBLANK(Layout!E12), "", Layout!E12*$K$12/Stocks!$E$3)</f>
@@ -20519,11 +20519,11 @@
       </c>
       <c r="H30" s="55">
         <f>IF(ISBLANK(Layout!G12), "", Layout!G12*$K$12/Stocks!$E$5)</f>
-        <v>0.14725919999999998</v>
+        <v>0.29451839999999996</v>
       </c>
       <c r="I30" s="55">
         <f>IF(ISBLANK(Layout!H12), "", Layout!H12*$K$12/Stocks!$E$6)</f>
-        <v>0.13797986577181207</v>
+        <v>0.27595973154362413</v>
       </c>
       <c r="J30" s="55" t="str">
         <f>IF(ISBLANK(Layout!I12),"",Layout!I12*$K$12/Stocks!$E$7)</f>
@@ -20551,7 +20551,7 @@
       </c>
       <c r="P30" s="108">
         <f t="shared" si="1"/>
-        <v>0.28523906577181202</v>
+        <v>0.57047813154362403</v>
       </c>
     </row>
     <row r="31" spans="1:1024" outlineLevel="1">
